--- a/medicine/Mort/Liste_de_parlementaires_britanniques_morts_à_la_Première_Guerre_mondiale/Liste_de_parlementaires_britanniques_morts_à_la_Première_Guerre_mondiale.xlsx
+++ b/medicine/Mort/Liste_de_parlementaires_britanniques_morts_à_la_Première_Guerre_mondiale/Liste_de_parlementaires_britanniques_morts_à_la_Première_Guerre_mondiale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_parlementaires_britanniques_morts_%C3%A0_la_Premi%C3%A8re_Guerre_mondiale</t>
+          <t>Liste_de_parlementaires_britanniques_morts_à_la_Première_Guerre_mondiale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Royaume-Uni de Grande-Bretagne et d'Irlande déclare la guerre à l'Empire allemand le 4 août 1914 à la suite de l'invasion de la Belgique par l'Allemagne, et participe ainsi durant quatre ans à la Première Guerre mondiale, dans le camp des Alliés et contre les empires centraux. Quelque 750 000 hommes britanniques sont tués à la guerre durant ce conflit.
 À l'entame de la guerre, le Premier ministre du Royaume-Uni est le libéral Herbert Henry Asquith, qui a été reconduit à la suite des élections législatives de décembre 1910. Il est à la tête d'un gouvernement minoritaire libéral, avec le soutien sans participation des députés nationalistes irlandais du Parti parlementaire irlandais. Contesté pour sa gestion de la guerre, Herbert Asquith est contraint en mai 1915 de former un gouvernement d'union nationale incluant le Parti conservateur et le Parti travailliste. Le Premier ministre est contraint par les conservateurs de démissionner en décembre 1916, et David Lloyd George lui succède à la tête de la coalition.
-Au total, 264 députés de la Chambre des communes s'engagent dans les forces armées durant la Première Guerre mondiale. Vingt députés de la Chambre des communes sont tués à la guerre (ou bien meurent des suites de leur participation), de même que vingt membres de la Chambre des lords et trois anciens députés des communes. Un mémorial commémore ces quarante-trois hommes, ainsi que les personnels des deux Chambres et les soldats morts au front qui sont fils de parlementaires, à Westminster Hall, dans l'enceinte du palais de Westminster où siège le Parlement[1],[2].
+Au total, 264 députés de la Chambre des communes s'engagent dans les forces armées durant la Première Guerre mondiale. Vingt députés de la Chambre des communes sont tués à la guerre (ou bien meurent des suites de leur participation), de même que vingt membres de la Chambre des lords et trois anciens députés des communes. Un mémorial commémore ces quarante-trois hommes, ainsi que les personnels des deux Chambres et les soldats morts au front qui sont fils de parlementaires, à Westminster Hall, dans l'enceinte du palais de Westminster où siège le Parlement,.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_parlementaires_britanniques_morts_%C3%A0_la_Premi%C3%A8re_Guerre_mondiale</t>
+          <t>Liste_de_parlementaires_britanniques_morts_à_la_Première_Guerre_mondiale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Liste</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces quarante-trois parlementaires ou anciens parlementaires tombés au front ou bien des suites de la guerre sont, par ordre chronologique[1],[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces quarante-trois parlementaires ou anciens parlementaires tombés au front ou bien des suites de la guerre sont, par ordre chronologique, :
 </t>
         </is>
       </c>
